--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/002_道具表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/002_道具表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50B52BF-1355-41C5-8F75-51DC10D46F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE491F26-8270-4623-81C1-D6425DC0AF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="0" windowWidth="13500" windowHeight="20835" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25290" yWindow="1455" windowWidth="13500" windowHeight="16545" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item|代币表" sheetId="1" r:id="rId1"/>
